--- a/data/labels.xlsx
+++ b/data/labels.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="set1" sheetId="2" r:id="rId1"/>
@@ -1386,9 +1386,6 @@
     <t>Con-V1-1-e.CNG.swc</t>
   </si>
   <si>
-    <t>somatosensory cortex</t>
-  </si>
-  <si>
     <t>Con-V1-2-e.CNG.swc</t>
   </si>
   <si>
@@ -1596,9 +1593,6 @@
     <t>CSp-CSP1.CNG.swc</t>
   </si>
   <si>
-    <t>secondary motor cortex</t>
-  </si>
-  <si>
     <t>CSp0114-1.CNG.swc</t>
   </si>
   <si>
@@ -1869,12 +1863,6 @@
     <t>40-mouse-c57-hcca1-id14-sec29-cel5-soma-corr1-6z.CNG.swc</t>
   </si>
   <si>
-    <t>hippocampal pyramidal human</t>
-  </si>
-  <si>
-    <t>hippocampal pyramidal mouse</t>
-  </si>
-  <si>
     <t>retinal ganglion</t>
   </si>
   <si>
@@ -1888,6 +1876,18 @@
   </si>
   <si>
     <t>interneuron</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Pyramidal human</t>
+  </si>
+  <si>
+    <t>Pyramidal mouse</t>
   </si>
 </sst>
 </file>
@@ -2253,7 +2253,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2270,7 +2270,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2287,7 +2287,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2304,7 +2304,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2321,7 +2321,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2338,7 +2338,7 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2355,7 +2355,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2389,7 +2389,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2406,7 +2406,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2423,7 +2423,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2440,7 +2440,7 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2457,7 +2457,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2474,7 +2474,7 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2491,7 +2491,7 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2508,7 +2508,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2525,7 +2525,7 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2542,7 +2542,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2559,7 +2559,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2576,7 +2576,7 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2593,7 +2593,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2610,7 +2610,7 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2627,7 +2627,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2644,7 +2644,7 @@
         <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2661,7 +2661,7 @@
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2678,7 +2678,7 @@
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2695,7 +2695,7 @@
         <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2712,7 +2712,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2729,7 +2729,7 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2746,7 +2746,7 @@
         <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2763,7 +2763,7 @@
         <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -2780,7 +2780,7 @@
         <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -2797,7 +2797,7 @@
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -2814,7 +2814,7 @@
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -2831,7 +2831,7 @@
         <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -2848,7 +2848,7 @@
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2865,7 +2865,7 @@
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2882,7 +2882,7 @@
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2899,7 +2899,7 @@
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2916,7 +2916,7 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2933,7 +2933,7 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2950,7 +2950,7 @@
         <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2967,7 +2967,7 @@
         <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2984,7 +2984,7 @@
         <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -3001,7 +3001,7 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -3018,7 +3018,7 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -3035,7 +3035,7 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3052,7 +3052,7 @@
         <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3069,7 +3069,7 @@
         <v>55</v>
       </c>
       <c r="E50" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3086,7 +3086,7 @@
         <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -3103,7 +3103,7 @@
         <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -3120,7 +3120,7 @@
         <v>58</v>
       </c>
       <c r="E53" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -3137,7 +3137,7 @@
         <v>59</v>
       </c>
       <c r="E54" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -3154,7 +3154,7 @@
         <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -3171,7 +3171,7 @@
         <v>61</v>
       </c>
       <c r="E56" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -3188,7 +3188,7 @@
         <v>62</v>
       </c>
       <c r="E57" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -3205,7 +3205,7 @@
         <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -3222,7 +3222,7 @@
         <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3239,7 +3239,7 @@
         <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3256,7 +3256,7 @@
         <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -3273,7 +3273,7 @@
         <v>67</v>
       </c>
       <c r="E62" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -3290,7 +3290,7 @@
         <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -3307,7 +3307,7 @@
         <v>69</v>
       </c>
       <c r="E64" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3324,7 +3324,7 @@
         <v>70</v>
       </c>
       <c r="E65" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3341,7 +3341,7 @@
         <v>71</v>
       </c>
       <c r="E66" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3358,7 +3358,7 @@
         <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3375,7 +3375,7 @@
         <v>73</v>
       </c>
       <c r="E68" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3392,7 +3392,7 @@
         <v>74</v>
       </c>
       <c r="E69" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3409,7 +3409,7 @@
         <v>75</v>
       </c>
       <c r="E70" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3426,7 +3426,7 @@
         <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3443,7 +3443,7 @@
         <v>77</v>
       </c>
       <c r="E72" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3460,7 +3460,7 @@
         <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3477,7 +3477,7 @@
         <v>79</v>
       </c>
       <c r="E74" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3494,7 +3494,7 @@
         <v>80</v>
       </c>
       <c r="E75" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3511,7 +3511,7 @@
         <v>81</v>
       </c>
       <c r="E76" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3528,7 +3528,7 @@
         <v>82</v>
       </c>
       <c r="E77" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3545,7 +3545,7 @@
         <v>83</v>
       </c>
       <c r="E78" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3562,7 +3562,7 @@
         <v>84</v>
       </c>
       <c r="E79" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3579,7 +3579,7 @@
         <v>85</v>
       </c>
       <c r="E80" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3596,7 +3596,7 @@
         <v>86</v>
       </c>
       <c r="E81" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3613,7 +3613,7 @@
         <v>87</v>
       </c>
       <c r="E82" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3630,7 +3630,7 @@
         <v>88</v>
       </c>
       <c r="E83" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -3647,7 +3647,7 @@
         <v>89</v>
       </c>
       <c r="E84" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3664,7 +3664,7 @@
         <v>90</v>
       </c>
       <c r="E85" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3681,7 +3681,7 @@
         <v>91</v>
       </c>
       <c r="E86" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -3698,7 +3698,7 @@
         <v>92</v>
       </c>
       <c r="E87" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -3715,7 +3715,7 @@
         <v>93</v>
       </c>
       <c r="E88" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -3732,7 +3732,7 @@
         <v>94</v>
       </c>
       <c r="E89" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -3749,7 +3749,7 @@
         <v>95</v>
       </c>
       <c r="E90" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -3766,7 +3766,7 @@
         <v>96</v>
       </c>
       <c r="E91" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -3783,7 +3783,7 @@
         <v>97</v>
       </c>
       <c r="E92" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -3800,7 +3800,7 @@
         <v>98</v>
       </c>
       <c r="E93" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -3817,7 +3817,7 @@
         <v>99</v>
       </c>
       <c r="E94" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -3834,7 +3834,7 @@
         <v>101</v>
       </c>
       <c r="E95" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -3851,7 +3851,7 @@
         <v>102</v>
       </c>
       <c r="E96" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -3868,7 +3868,7 @@
         <v>103</v>
       </c>
       <c r="E97" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -3885,7 +3885,7 @@
         <v>104</v>
       </c>
       <c r="E98" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -3902,7 +3902,7 @@
         <v>105</v>
       </c>
       <c r="E99" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -3919,7 +3919,7 @@
         <v>106</v>
       </c>
       <c r="E100" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -3936,7 +3936,7 @@
         <v>107</v>
       </c>
       <c r="E101" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -3953,7 +3953,7 @@
         <v>108</v>
       </c>
       <c r="E102" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -3970,7 +3970,7 @@
         <v>109</v>
       </c>
       <c r="E103" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -3987,7 +3987,7 @@
         <v>110</v>
       </c>
       <c r="E104" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -4004,7 +4004,7 @@
         <v>111</v>
       </c>
       <c r="E105" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -4021,7 +4021,7 @@
         <v>112</v>
       </c>
       <c r="E106" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4038,7 +4038,7 @@
         <v>113</v>
       </c>
       <c r="E107" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -4055,7 +4055,7 @@
         <v>114</v>
       </c>
       <c r="E108" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -4072,7 +4072,7 @@
         <v>115</v>
       </c>
       <c r="E109" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4089,7 +4089,7 @@
         <v>116</v>
       </c>
       <c r="E110" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -4106,7 +4106,7 @@
         <v>117</v>
       </c>
       <c r="E111" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -4123,7 +4123,7 @@
         <v>118</v>
       </c>
       <c r="E112" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -4140,7 +4140,7 @@
         <v>119</v>
       </c>
       <c r="E113" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -4157,7 +4157,7 @@
         <v>120</v>
       </c>
       <c r="E114" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -4174,7 +4174,7 @@
         <v>121</v>
       </c>
       <c r="E115" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -4191,7 +4191,7 @@
         <v>122</v>
       </c>
       <c r="E116" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -4208,7 +4208,7 @@
         <v>123</v>
       </c>
       <c r="E117" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -4225,7 +4225,7 @@
         <v>124</v>
       </c>
       <c r="E118" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -4242,7 +4242,7 @@
         <v>125</v>
       </c>
       <c r="E119" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -4259,7 +4259,7 @@
         <v>126</v>
       </c>
       <c r="E120" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -4276,7 +4276,7 @@
         <v>127</v>
       </c>
       <c r="E121" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -4293,7 +4293,7 @@
         <v>128</v>
       </c>
       <c r="E122" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -4310,7 +4310,7 @@
         <v>129</v>
       </c>
       <c r="E123" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -4327,7 +4327,7 @@
         <v>130</v>
       </c>
       <c r="E124" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -4344,7 +4344,7 @@
         <v>131</v>
       </c>
       <c r="E125" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -4361,7 +4361,7 @@
         <v>132</v>
       </c>
       <c r="E126" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -4378,7 +4378,7 @@
         <v>133</v>
       </c>
       <c r="E127" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -4395,7 +4395,7 @@
         <v>134</v>
       </c>
       <c r="E128" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4412,7 +4412,7 @@
         <v>135</v>
       </c>
       <c r="E129" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -4429,7 +4429,7 @@
         <v>136</v>
       </c>
       <c r="E130" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -4446,7 +4446,7 @@
         <v>137</v>
       </c>
       <c r="E131" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -4463,7 +4463,7 @@
         <v>138</v>
       </c>
       <c r="E132" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -4480,7 +4480,7 @@
         <v>139</v>
       </c>
       <c r="E133" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -4497,7 +4497,7 @@
         <v>140</v>
       </c>
       <c r="E134" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -4514,7 +4514,7 @@
         <v>141</v>
       </c>
       <c r="E135" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -4531,7 +4531,7 @@
         <v>142</v>
       </c>
       <c r="E136" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -4548,7 +4548,7 @@
         <v>143</v>
       </c>
       <c r="E137" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -4565,7 +4565,7 @@
         <v>145</v>
       </c>
       <c r="E138" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -4582,7 +4582,7 @@
         <v>146</v>
       </c>
       <c r="E139" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -4599,7 +4599,7 @@
         <v>147</v>
       </c>
       <c r="E140" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -4616,7 +4616,7 @@
         <v>148</v>
       </c>
       <c r="E141" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -4633,7 +4633,7 @@
         <v>149</v>
       </c>
       <c r="E142" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -4650,7 +4650,7 @@
         <v>150</v>
       </c>
       <c r="E143" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -4667,7 +4667,7 @@
         <v>151</v>
       </c>
       <c r="E144" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -4684,7 +4684,7 @@
         <v>152</v>
       </c>
       <c r="E145" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -4701,7 +4701,7 @@
         <v>153</v>
       </c>
       <c r="E146" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -4718,7 +4718,7 @@
         <v>154</v>
       </c>
       <c r="E147" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -4735,7 +4735,7 @@
         <v>155</v>
       </c>
       <c r="E148" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -4752,7 +4752,7 @@
         <v>156</v>
       </c>
       <c r="E149" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -4769,7 +4769,7 @@
         <v>157</v>
       </c>
       <c r="E150" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -4786,7 +4786,7 @@
         <v>158</v>
       </c>
       <c r="E151" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -4803,7 +4803,7 @@
         <v>159</v>
       </c>
       <c r="E152" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -4820,7 +4820,7 @@
         <v>160</v>
       </c>
       <c r="E153" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -4837,7 +4837,7 @@
         <v>161</v>
       </c>
       <c r="E154" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -4854,7 +4854,7 @@
         <v>162</v>
       </c>
       <c r="E155" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -4871,7 +4871,7 @@
         <v>163</v>
       </c>
       <c r="E156" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -4888,7 +4888,7 @@
         <v>164</v>
       </c>
       <c r="E157" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -4900,7 +4900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+    <sheetView topLeftCell="A223" workbookViewId="0">
       <selection activeCell="E205" sqref="E205:E281"/>
     </sheetView>
   </sheetViews>
@@ -8394,7 +8394,7 @@
         <v>375</v>
       </c>
       <c r="E205" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -8411,7 +8411,7 @@
         <v>376</v>
       </c>
       <c r="E206" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -8428,7 +8428,7 @@
         <v>377</v>
       </c>
       <c r="E207" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -8445,7 +8445,7 @@
         <v>378</v>
       </c>
       <c r="E208" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -8462,7 +8462,7 @@
         <v>379</v>
       </c>
       <c r="E209" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -8479,7 +8479,7 @@
         <v>380</v>
       </c>
       <c r="E210" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -8496,7 +8496,7 @@
         <v>381</v>
       </c>
       <c r="E211" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -8513,7 +8513,7 @@
         <v>382</v>
       </c>
       <c r="E212" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -8530,7 +8530,7 @@
         <v>383</v>
       </c>
       <c r="E213" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -8547,7 +8547,7 @@
         <v>384</v>
       </c>
       <c r="E214" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -8564,7 +8564,7 @@
         <v>385</v>
       </c>
       <c r="E215" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -8581,7 +8581,7 @@
         <v>386</v>
       </c>
       <c r="E216" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -8598,7 +8598,7 @@
         <v>387</v>
       </c>
       <c r="E217" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -8615,7 +8615,7 @@
         <v>388</v>
       </c>
       <c r="E218" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -8632,7 +8632,7 @@
         <v>389</v>
       </c>
       <c r="E219" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -8649,7 +8649,7 @@
         <v>390</v>
       </c>
       <c r="E220" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -8666,7 +8666,7 @@
         <v>391</v>
       </c>
       <c r="E221" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -8683,7 +8683,7 @@
         <v>392</v>
       </c>
       <c r="E222" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -8700,7 +8700,7 @@
         <v>393</v>
       </c>
       <c r="E223" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -8717,7 +8717,7 @@
         <v>394</v>
       </c>
       <c r="E224" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -8734,7 +8734,7 @@
         <v>395</v>
       </c>
       <c r="E225" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -8751,7 +8751,7 @@
         <v>396</v>
       </c>
       <c r="E226" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -8768,7 +8768,7 @@
         <v>397</v>
       </c>
       <c r="E227" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -8785,7 +8785,7 @@
         <v>398</v>
       </c>
       <c r="E228" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -8802,7 +8802,7 @@
         <v>399</v>
       </c>
       <c r="E229" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -8819,7 +8819,7 @@
         <v>400</v>
       </c>
       <c r="E230" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -8836,7 +8836,7 @@
         <v>401</v>
       </c>
       <c r="E231" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -8853,7 +8853,7 @@
         <v>402</v>
       </c>
       <c r="E232" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -8870,7 +8870,7 @@
         <v>403</v>
       </c>
       <c r="E233" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -8887,7 +8887,7 @@
         <v>404</v>
       </c>
       <c r="E234" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -8904,7 +8904,7 @@
         <v>405</v>
       </c>
       <c r="E235" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -8921,7 +8921,7 @@
         <v>406</v>
       </c>
       <c r="E236" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -8938,7 +8938,7 @@
         <v>407</v>
       </c>
       <c r="E237" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -8955,7 +8955,7 @@
         <v>408</v>
       </c>
       <c r="E238" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -8972,7 +8972,7 @@
         <v>409</v>
       </c>
       <c r="E239" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -8989,7 +8989,7 @@
         <v>410</v>
       </c>
       <c r="E240" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -9006,7 +9006,7 @@
         <v>411</v>
       </c>
       <c r="E241" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -9023,7 +9023,7 @@
         <v>412</v>
       </c>
       <c r="E242" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -9040,7 +9040,7 @@
         <v>413</v>
       </c>
       <c r="E243" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -9057,7 +9057,7 @@
         <v>414</v>
       </c>
       <c r="E244" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -9074,7 +9074,7 @@
         <v>415</v>
       </c>
       <c r="E245" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -9091,7 +9091,7 @@
         <v>416</v>
       </c>
       <c r="E246" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -9108,7 +9108,7 @@
         <v>417</v>
       </c>
       <c r="E247" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -9125,7 +9125,7 @@
         <v>418</v>
       </c>
       <c r="E248" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -9142,7 +9142,7 @@
         <v>419</v>
       </c>
       <c r="E249" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -9159,7 +9159,7 @@
         <v>420</v>
       </c>
       <c r="E250" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -9176,7 +9176,7 @@
         <v>421</v>
       </c>
       <c r="E251" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -9193,7 +9193,7 @@
         <v>422</v>
       </c>
       <c r="E252" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -9210,7 +9210,7 @@
         <v>423</v>
       </c>
       <c r="E253" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -9227,7 +9227,7 @@
         <v>424</v>
       </c>
       <c r="E254" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -9244,7 +9244,7 @@
         <v>425</v>
       </c>
       <c r="E255" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -9261,7 +9261,7 @@
         <v>426</v>
       </c>
       <c r="E256" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -9278,7 +9278,7 @@
         <v>427</v>
       </c>
       <c r="E257" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -9295,7 +9295,7 @@
         <v>428</v>
       </c>
       <c r="E258" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -9312,7 +9312,7 @@
         <v>429</v>
       </c>
       <c r="E259" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -9329,7 +9329,7 @@
         <v>430</v>
       </c>
       <c r="E260" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -9346,7 +9346,7 @@
         <v>431</v>
       </c>
       <c r="E261" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -9363,7 +9363,7 @@
         <v>432</v>
       </c>
       <c r="E262" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -9380,7 +9380,7 @@
         <v>433</v>
       </c>
       <c r="E263" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -9397,7 +9397,7 @@
         <v>434</v>
       </c>
       <c r="E264" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -9414,7 +9414,7 @@
         <v>435</v>
       </c>
       <c r="E265" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -9431,7 +9431,7 @@
         <v>436</v>
       </c>
       <c r="E266" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -9448,7 +9448,7 @@
         <v>437</v>
       </c>
       <c r="E267" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -9465,7 +9465,7 @@
         <v>438</v>
       </c>
       <c r="E268" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -9482,7 +9482,7 @@
         <v>439</v>
       </c>
       <c r="E269" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -9499,7 +9499,7 @@
         <v>440</v>
       </c>
       <c r="E270" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -9516,7 +9516,7 @@
         <v>441</v>
       </c>
       <c r="E271" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -9533,7 +9533,7 @@
         <v>442</v>
       </c>
       <c r="E272" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -9550,7 +9550,7 @@
         <v>443</v>
       </c>
       <c r="E273" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -9567,7 +9567,7 @@
         <v>444</v>
       </c>
       <c r="E274" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -9584,7 +9584,7 @@
         <v>445</v>
       </c>
       <c r="E275" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -9601,7 +9601,7 @@
         <v>446</v>
       </c>
       <c r="E276" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -9618,7 +9618,7 @@
         <v>447</v>
       </c>
       <c r="E277" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -9635,7 +9635,7 @@
         <v>448</v>
       </c>
       <c r="E278" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -9652,7 +9652,7 @@
         <v>449</v>
       </c>
       <c r="E279" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -9669,7 +9669,7 @@
         <v>450</v>
       </c>
       <c r="E280" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -9686,7 +9686,7 @@
         <v>451</v>
       </c>
       <c r="E281" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -9698,8 +9698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9741,7 +9741,7 @@
         <v>453</v>
       </c>
       <c r="E2" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -9755,10 +9755,10 @@
         <v>452</v>
       </c>
       <c r="D3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E3" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -9772,10 +9772,10 @@
         <v>452</v>
       </c>
       <c r="D4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E4" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -9789,10 +9789,10 @@
         <v>452</v>
       </c>
       <c r="D5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E5" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -9806,10 +9806,10 @@
         <v>452</v>
       </c>
       <c r="D6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E6" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -9823,10 +9823,10 @@
         <v>452</v>
       </c>
       <c r="D7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E7" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -9840,10 +9840,10 @@
         <v>452</v>
       </c>
       <c r="D8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E8" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -9857,10 +9857,10 @@
         <v>452</v>
       </c>
       <c r="D9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E9" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -9874,10 +9874,10 @@
         <v>452</v>
       </c>
       <c r="D10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E10" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -9891,10 +9891,10 @@
         <v>452</v>
       </c>
       <c r="D11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E11" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -9908,10 +9908,10 @@
         <v>452</v>
       </c>
       <c r="D12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E12" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -9925,10 +9925,10 @@
         <v>452</v>
       </c>
       <c r="D13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E13" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -9942,10 +9942,10 @@
         <v>452</v>
       </c>
       <c r="D14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E14" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -9959,10 +9959,10 @@
         <v>452</v>
       </c>
       <c r="D15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E15" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -9976,10 +9976,10 @@
         <v>452</v>
       </c>
       <c r="D16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E16" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -9993,10 +9993,10 @@
         <v>452</v>
       </c>
       <c r="D17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E17" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -10010,10 +10010,10 @@
         <v>452</v>
       </c>
       <c r="D18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E18" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -10027,10 +10027,10 @@
         <v>452</v>
       </c>
       <c r="D19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E19" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -10044,10 +10044,10 @@
         <v>452</v>
       </c>
       <c r="D20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E20" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -10061,10 +10061,10 @@
         <v>452</v>
       </c>
       <c r="D21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E21" t="s">
-        <v>454</v>
+        <v>618</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -10075,13 +10075,13 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
+        <v>473</v>
+      </c>
+      <c r="D22" t="s">
         <v>474</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>475</v>
-      </c>
-      <c r="E22" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -10092,13 +10092,13 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E23" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -10109,13 +10109,13 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -10126,13 +10126,13 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -10143,13 +10143,13 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E26" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -10160,13 +10160,13 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -10177,13 +10177,13 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -10194,13 +10194,13 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E29" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -10211,13 +10211,13 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -10228,13 +10228,13 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -10245,13 +10245,13 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D32" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E32" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -10262,13 +10262,13 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -10279,13 +10279,13 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -10296,13 +10296,13 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D35" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -10313,13 +10313,13 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D36" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -10330,13 +10330,13 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D37" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -10347,13 +10347,13 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -10364,13 +10364,13 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D39" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E39" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -10381,13 +10381,13 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -10398,13 +10398,13 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D41" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -10415,13 +10415,13 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -10432,13 +10432,13 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D43" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E43" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -10449,13 +10449,13 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D44" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -10466,13 +10466,13 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D45" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E45" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -10483,13 +10483,13 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D46" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E46" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -10500,13 +10500,13 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D47" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E47" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -10517,13 +10517,13 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D48" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E48" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -10534,13 +10534,13 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D49" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E49" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -10551,13 +10551,13 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D50" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E50" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -10568,13 +10568,13 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D51" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E51" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -10585,13 +10585,13 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D52" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E52" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -10602,13 +10602,13 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D53" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E53" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -10619,13 +10619,13 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D54" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E54" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -10636,13 +10636,13 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D55" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E55" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -10653,13 +10653,13 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D56" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E56" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -10670,13 +10670,13 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D57" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -10687,13 +10687,13 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D58" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E58" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -10704,13 +10704,13 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D59" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E59" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -10721,13 +10721,13 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D60" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E60" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -10738,13 +10738,13 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E61" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -10755,13 +10755,13 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D62" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E62" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -10772,13 +10772,13 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D63" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E63" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -10789,13 +10789,13 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D64" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E64" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -10806,13 +10806,13 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D65" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E65" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -10823,13 +10823,13 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D66" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E66" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -10840,13 +10840,13 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -10857,13 +10857,13 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
+        <v>521</v>
+      </c>
+      <c r="D68" t="s">
         <v>522</v>
       </c>
-      <c r="D68" t="s">
-        <v>523</v>
-      </c>
       <c r="E68" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -10874,13 +10874,13 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D69" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E69" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -10891,13 +10891,13 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D70" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E70" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -10908,13 +10908,13 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E71" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -10925,13 +10925,13 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D72" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E72" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -10942,13 +10942,13 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D73" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E73" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -10959,13 +10959,13 @@
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D74" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E74" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -10976,13 +10976,13 @@
         <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D75" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E75" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -10993,13 +10993,13 @@
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D76" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E76" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -11010,13 +11010,13 @@
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D77" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E77" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -11027,13 +11027,13 @@
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D78" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E78" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -11044,13 +11044,13 @@
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D79" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E79" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -11061,13 +11061,13 @@
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D80" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E80" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -11078,13 +11078,13 @@
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D81" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E81" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -11095,13 +11095,13 @@
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D82" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E82" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -11112,13 +11112,13 @@
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D83" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E83" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -11129,13 +11129,13 @@
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D84" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E84" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -11146,13 +11146,13 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D85" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E85" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -11163,13 +11163,13 @@
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D86" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E86" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -11180,13 +11180,13 @@
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D87" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E87" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -11197,13 +11197,13 @@
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D88" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E88" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -11214,13 +11214,13 @@
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D89" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E89" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -11231,13 +11231,13 @@
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D90" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E90" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -11248,13 +11248,13 @@
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D91" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E91" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -11265,13 +11265,13 @@
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D92" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E92" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -11282,13 +11282,13 @@
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D93" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E93" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -11299,13 +11299,13 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D94" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E94" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -11316,13 +11316,13 @@
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D95" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E95" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -11333,13 +11333,13 @@
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D96" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E96" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -11350,13 +11350,13 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D97" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E97" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -11368,8 +11368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56:E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11405,13 +11405,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -11422,13 +11422,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>556</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -11439,13 +11439,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -11456,13 +11456,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -11473,13 +11473,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -11490,13 +11490,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -11507,13 +11507,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -11524,13 +11524,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -11541,13 +11541,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -11558,13 +11558,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -11575,13 +11575,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -11592,13 +11592,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -11609,13 +11609,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -11626,13 +11626,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -11643,13 +11643,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -11660,13 +11660,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -11677,13 +11677,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -11694,13 +11694,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -11711,13 +11711,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -11728,13 +11728,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -11745,13 +11745,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -11762,13 +11762,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -11779,13 +11779,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -11796,13 +11796,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -11813,13 +11813,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -11830,13 +11830,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -11847,13 +11847,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -11864,13 +11864,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -11881,13 +11881,13 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -11898,13 +11898,13 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -11915,13 +11915,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -11932,13 +11932,13 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -11949,13 +11949,13 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -11966,13 +11966,13 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -11983,13 +11983,13 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -12000,13 +12000,13 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -12017,13 +12017,13 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -12034,13 +12034,13 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -12051,13 +12051,13 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -12068,13 +12068,13 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -12085,13 +12085,13 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -12102,13 +12102,13 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -12119,13 +12119,13 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -12136,13 +12136,13 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -12153,13 +12153,13 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -12170,13 +12170,13 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -12187,13 +12187,13 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -12204,13 +12204,13 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -12221,13 +12221,13 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -12238,13 +12238,13 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -12255,13 +12255,13 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -12272,13 +12272,13 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -12289,13 +12289,13 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -12306,13 +12306,13 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -12323,13 +12323,13 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -12340,13 +12340,13 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -12357,13 +12357,13 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -12374,13 +12374,13 @@
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -12391,13 +12391,13 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -12408,13 +12408,13 @@
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -12425,13 +12425,13 @@
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -12442,13 +12442,13 @@
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -12459,13 +12459,13 @@
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -12476,13 +12476,13 @@
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -12493,13 +12493,13 @@
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -12510,13 +12510,13 @@
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -12527,13 +12527,13 @@
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -12544,13 +12544,13 @@
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -12561,13 +12561,13 @@
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -12578,13 +12578,13 @@
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -12595,13 +12595,13 @@
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -12612,13 +12612,13 @@
         <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -12629,13 +12629,13 @@
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -12646,13 +12646,13 @@
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -12663,13 +12663,13 @@
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -12680,13 +12680,13 @@
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -12697,13 +12697,13 @@
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -12714,13 +12714,13 @@
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -12731,13 +12731,13 @@
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -12748,13 +12748,13 @@
         <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -12765,13 +12765,13 @@
         <v>80</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -12782,13 +12782,13 @@
         <v>81</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -12799,13 +12799,13 @@
         <v>82</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -12816,13 +12816,13 @@
         <v>83</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -12833,13 +12833,13 @@
         <v>84</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -12850,13 +12850,13 @@
         <v>85</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -12867,13 +12867,13 @@
         <v>86</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -12884,13 +12884,13 @@
         <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -12901,13 +12901,13 @@
         <v>88</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -12918,13 +12918,13 @@
         <v>89</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -12935,13 +12935,13 @@
         <v>90</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -12952,13 +12952,13 @@
         <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -12969,13 +12969,13 @@
         <v>92</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -12986,13 +12986,13 @@
         <v>93</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -13003,13 +13003,13 @@
         <v>94</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -13020,13 +13020,13 @@
         <v>95</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -13037,13 +13037,13 @@
         <v>96</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -13054,13 +13054,13 @@
         <v>97</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -13071,13 +13071,13 @@
         <v>98</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -13088,13 +13088,13 @@
         <v>99</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -13105,13 +13105,13 @@
         <v>100</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -13122,13 +13122,13 @@
         <v>101</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -13139,13 +13139,13 @@
         <v>102</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -13156,13 +13156,13 @@
         <v>103</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
